--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1970,11 @@
           <t>A charity which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
@@ -2007,7 +2011,7 @@
       <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; to</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -558,7 +558,11 @@
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>
@@ -581,7 +585,11 @@
         <v>0</v>
       </c>
       <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1970,11 +1978,7 @@
           <t>A charity which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
@@ -2011,7 +2015,7 @@
       <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>SC; to</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -551,44 +551,52 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
+      <c r="A2" s="2" t="n"/>
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -606,13 +614,13 @@
           <t>A philanthropy organisation that is based in New York.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -628,19 +636,19 @@
           <t>grant agency</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -651,8 +659,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -680,8 +688,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -692,23 +700,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -719,88 +727,88 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr"/>
+      <c r="A5" s="2" t="n"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr"/>
+      <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -818,13 +826,13 @@
           <t>A charity that is focused on cancer research within the UK with a company number 4355631.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -840,23 +848,23 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">CRUK </t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -867,48 +875,48 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr"/>
+      <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -926,7 +934,7 @@
           <t>The US government agency that has responsibility for health protection.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -952,23 +960,23 @@
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
       <c r="P9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="inlineStr"/>
+      <c r="R9" s="3" t="n"/>
       <c r="S9" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -979,88 +987,88 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="3" t="inlineStr"/>
-      <c r="V9" s="3" t="inlineStr"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr"/>
+      <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr"/>
+      <c r="A11" s="2" t="n"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1078,7 +1086,7 @@
           <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="n"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -1104,19 +1112,19 @@
           <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
       <c r="P12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="inlineStr"/>
+      <c r="R12" s="3" t="n"/>
       <c r="S12" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -1127,8 +1135,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U12" s="3" t="inlineStr"/>
-      <c r="V12" s="3" t="inlineStr"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1146,13 +1154,13 @@
           <t>A charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1168,19 +1176,19 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1191,8 +1199,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1210,13 +1218,13 @@
           <t xml:space="preserve">An e-cigarette organisation with headquarters based in San Francisco. </t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1237,18 +1245,18 @@
           <t>tobacco funding</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1259,8 +1267,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1278,13 +1286,13 @@
           <t xml:space="preserve">A medical and health care service that is publicly funded to provide care for people in the UK. </t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">medical and health care service </t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1295,24 +1303,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
           <t>NHS</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1323,65 +1331,65 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
+      <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>National Institute for Health and Care Excellence</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
           <t>NICE</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr"/>
+      <c r="A17" s="2" t="n"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">National Institute of Health Research </t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1392,23 +1400,23 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>NIHR</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1419,52 +1427,52 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr"/>
+      <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
       <c r="H18" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1492,8 +1500,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
       <c r="H19" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1504,23 +1512,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1531,40 +1539,40 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr"/>
+      <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Puffit</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
       <c r="H20" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="n"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1575,21 +1583,21 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr"/>
+      <c r="A21" s="2" t="n"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
       <c r="H21" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1600,19 +1608,19 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="n"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1623,40 +1631,40 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr"/>
+      <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="2" t="inlineStr"/>
+      <c r="R22" s="2" t="n"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1667,8 +1675,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1681,30 +1689,30 @@
           <t>Volcano</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
       <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R23" s="2" t="inlineStr"/>
+      <c r="R23" s="2" t="n"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1715,11 +1723,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr"/>
+      <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol change UK </t>
@@ -1730,13 +1738,13 @@
           <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1747,20 +1755,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="n"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1771,11 +1779,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="n"/>
+      <c r="V24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr"/>
+      <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
@@ -1786,13 +1794,13 @@
           <t xml:space="preserve">A charity which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1808,23 +1816,23 @@
           <t xml:space="preserve">grant agency  </t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol harm prevention organisation </t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="n"/>
       <c r="S25" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1835,8 +1843,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1864,7 +1872,7 @@
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1880,19 +1888,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr"/>
-      <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
+      <c r="L26" s="3" t="n"/>
+      <c r="M26" s="3" t="n"/>
+      <c r="N26" s="3" t="n"/>
+      <c r="O26" s="3" t="n"/>
       <c r="P26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="n"/>
       <c r="S26" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1903,11 +1911,11 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="3" t="inlineStr"/>
-      <c r="V26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="n"/>
+      <c r="V26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr"/>
+      <c r="A27" s="2" t="n"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
@@ -1918,9 +1926,9 @@
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1931,20 +1939,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
       <c r="P27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1955,11 +1963,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="n"/>
+      <c r="V27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr"/>
+      <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
@@ -1980,7 +1988,7 @@
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1991,24 +1999,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer prevention organisation </t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="n"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
           <t>SC; to</t>
@@ -2019,8 +2027,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2038,13 +2046,13 @@
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2060,19 +2068,19 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
       <c r="P29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R29" s="2" t="inlineStr"/>
+      <c r="R29" s="2" t="n"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2083,8 +2091,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2102,13 +2110,13 @@
           <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2124,19 +2132,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R30" s="2" t="inlineStr"/>
+      <c r="R30" s="2" t="n"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2147,8 +2155,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2166,13 +2174,13 @@
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2188,19 +2196,19 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
       <c r="P31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="n"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2211,8 +2219,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2230,13 +2238,13 @@
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="n"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2252,19 +2260,19 @@
           <t>supplier of product</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="n"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2275,11 +2283,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr"/>
+      <c r="A33" s="2" t="n"/>
       <c r="B33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
@@ -2290,13 +2298,13 @@
           <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="n"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2307,20 +2315,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="n"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2331,8 +2339,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2350,13 +2358,13 @@
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="n"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2372,23 +2380,23 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
           <t>shop; local shop; local store</t>
         </is>
       </c>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="n"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2399,8 +2407,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2418,13 +2426,13 @@
           <t>An organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>eorganisation</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="n"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2440,19 +2448,19 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="n"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2468,7 +2476,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2486,13 +2494,13 @@
           <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="n"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2508,7 +2516,7 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr"/>
+      <c r="J36" s="3" t="n"/>
       <c r="K36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
@@ -2519,16 +2527,16 @@
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr"/>
+      <c r="M36" s="3" t="n"/>
+      <c r="N36" s="3" t="n"/>
+      <c r="O36" s="3" t="n"/>
       <c r="P36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="n"/>
       <c r="S36" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2539,8 +2547,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="3" t="inlineStr"/>
-      <c r="V36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="n"/>
+      <c r="V36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2558,13 +2566,13 @@
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components or e-liquid to consumers.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="n"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2580,23 +2588,23 @@
           <t xml:space="preserve">supplier of product; retailer of product </t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
         </is>
       </c>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="n"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2612,7 +2620,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2630,13 +2638,13 @@
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2652,19 +2660,19 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
       <c r="P38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R38" s="2" t="inlineStr"/>
+      <c r="R38" s="2" t="n"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2680,7 +2688,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2698,13 +2706,13 @@
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>e-cigarette organisation</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="n"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2720,19 +2728,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
       <c r="P39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="n"/>
       <c r="S39" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2748,7 +2756,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2766,13 +2774,13 @@
           <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="n"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="n"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2783,20 +2791,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="n"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2807,8 +2815,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="n"/>
+      <c r="V40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -2826,13 +2834,13 @@
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="n"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2843,24 +2851,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr"/>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="n"/>
       <c r="N41" s="3" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="O41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="n"/>
       <c r="P41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
           <t>All</t>
@@ -2871,8 +2879,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="3" t="inlineStr"/>
-      <c r="V41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="n"/>
+      <c r="V41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2900,7 +2908,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="n"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2911,24 +2919,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
           <t>funder</t>
         </is>
       </c>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
       <c r="P42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="n"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2939,8 +2947,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -2958,13 +2966,13 @@
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="n"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2980,27 +2988,27 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
       <c r="L43" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="n"/>
       <c r="N43" s="3" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="n"/>
       <c r="P43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="n"/>
       <c r="S43" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3016,7 +3024,7 @@
           <t>RW</t>
         </is>
       </c>
-      <c r="V43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -3034,13 +3042,13 @@
           <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="n"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3056,23 +3064,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">vape industry; independent vape industry </t>
         </is>
       </c>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q44" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="n"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
           <t>JH; SC; CN</t>
@@ -3088,7 +3096,7 @@
           <t xml:space="preserve"> RW;  </t>
         </is>
       </c>
-      <c r="V44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3106,13 +3114,13 @@
           <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3128,23 +3136,23 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
         </is>
       </c>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
       <c r="P45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q45" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="n"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3160,47 +3168,47 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr"/>
+      <c r="A46" s="2" t="n"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
       <c r="H46" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="n"/>
+      <c r="S46" s="2" t="n"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3218,13 +3226,13 @@
           <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3235,20 +3243,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="n"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -3264,7 +3272,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3282,33 +3290,33 @@
           <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
       <c r="E48" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="n"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3324,7 +3332,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3342,13 +3350,13 @@
           <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3359,20 +3367,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
       <c r="P49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q49" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="n"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3383,8 +3391,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3412,7 +3420,7 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="n"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3423,8 +3431,8 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr"/>
-      <c r="J50" s="3" t="inlineStr"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
       <c r="K50" s="3" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
@@ -3435,24 +3443,24 @@
           <t>Organization</t>
         </is>
       </c>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
+      <c r="O50" s="3" t="n"/>
       <c r="P50" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr"/>
+      <c r="R50" s="3" t="n"/>
+      <c r="S50" s="3" t="n"/>
       <c r="T50" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="3" t="inlineStr"/>
-      <c r="V50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="n"/>
+      <c r="V50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3470,29 +3478,29 @@
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="n"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3503,11 +3511,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr"/>
+      <c r="A52" s="2" t="n"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">regulatory agency </t>
@@ -3528,7 +3536,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="n"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3539,20 +3547,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
       <c r="P52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q52" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R52" s="2" t="inlineStr"/>
+      <c r="R52" s="2" t="n"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3563,8 +3571,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3582,33 +3590,33 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
       <c r="H53" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
       <c r="P53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q53" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R53" s="2" t="inlineStr"/>
+      <c r="R53" s="2" t="n"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3624,47 +3632,47 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr"/>
+      <c r="A54" s="2" t="n"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
           <t>statutory child protection agency</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr"/>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
       <c r="H54" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="n"/>
+      <c r="S54" s="2" t="n"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="n"/>
+      <c r="V54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3682,33 +3690,33 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
       <c r="H55" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
       <c r="P55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q55" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R55" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="n"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3724,7 +3732,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3742,13 +3750,13 @@
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="n"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="n"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3764,27 +3772,27 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="n"/>
       <c r="K56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
       <c r="N56" s="2" t="inlineStr">
         <is>
           <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
         </is>
       </c>
-      <c r="O56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="n"/>
       <c r="P56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q56" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R56" s="2" t="inlineStr"/>
+      <c r="R56" s="2" t="n"/>
       <c r="S56" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3800,10 +3808,10 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr"/>
+      <c r="A57" s="2" t="n"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
           <t>tobacco funding</t>
@@ -3814,13 +3822,13 @@
           <t xml:space="preserve">A role that is provided by a tobacco company. </t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="n"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">role </t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="n"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">role </t>
@@ -3831,20 +3839,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+      <c r="O57" s="2" t="n"/>
       <c r="P57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q57" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R57" s="2" t="inlineStr"/>
+      <c r="R57" s="2" t="n"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3860,7 +3868,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3878,13 +3886,13 @@
           <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="n"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3895,20 +3903,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
       <c r="P58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q58" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="n"/>
       <c r="S58" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3924,7 +3932,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3942,13 +3950,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n"/>
       <c r="E59" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="n"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3964,19 +3972,19 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
       <c r="P59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q59" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R59" s="2" t="inlineStr"/>
+      <c r="R59" s="2" t="n"/>
       <c r="S59" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3992,7 +4000,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -4010,13 +4018,13 @@
           <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="n"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -4032,19 +4040,19 @@
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
       <c r="P60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q60" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="n"/>
       <c r="S60" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4060,7 +4068,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -4078,13 +4086,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="n"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -4100,19 +4108,19 @@
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
       <c r="P61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q61" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="n"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4128,7 +4136,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -551,40 +551,40 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
+      <c r="A2" s="2" t="inlineStr"/>
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n"/>
+      <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="n"/>
+      <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -595,8 +595,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -614,13 +614,13 @@
           <t>A philanthropy organisation that is based in New York.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n"/>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -636,19 +636,19 @@
           <t>grant agency</t>
         </is>
       </c>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="n"/>
+      <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -659,8 +659,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -688,8 +688,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -700,23 +700,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="n"/>
+      <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -727,88 +727,88 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
+      <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
+      <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -826,13 +826,13 @@
           <t>A charity that is focused on cancer research within the UK with a company number 4355631.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -848,23 +848,23 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">CRUK </t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="2" t="n"/>
+      <c r="R7" s="2" t="inlineStr"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -875,48 +875,48 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
+      <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
+      <c r="R8" s="2" t="inlineStr"/>
+      <c r="S8" s="2" t="inlineStr"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -934,7 +934,7 @@
           <t>The US government agency that has responsibility for health protection.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -960,23 +960,23 @@
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr"/>
       <c r="P9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="n"/>
+      <c r="R9" s="3" t="inlineStr"/>
       <c r="S9" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -987,88 +987,88 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="3" t="n"/>
-      <c r="V9" s="3" t="n"/>
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
+      <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
+      <c r="R10" s="2" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U10" s="2" t="n"/>
-      <c r="V10" s="2" t="n"/>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
+      <c r="A11" s="2" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1086,7 +1086,7 @@
           <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -1112,19 +1112,19 @@
           <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
-      <c r="L12" s="3" t="n"/>
-      <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
-      <c r="O12" s="3" t="n"/>
+      <c r="J12" s="3" t="inlineStr"/>
+      <c r="K12" s="3" t="inlineStr"/>
+      <c r="L12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr"/>
+      <c r="O12" s="3" t="inlineStr"/>
       <c r="P12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="n"/>
+      <c r="R12" s="3" t="inlineStr"/>
       <c r="S12" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -1135,8 +1135,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U12" s="3" t="n"/>
-      <c r="V12" s="3" t="n"/>
+      <c r="U12" s="3" t="inlineStr"/>
+      <c r="V12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1154,13 +1154,13 @@
           <t>A charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1176,19 +1176,19 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R13" s="2" t="n"/>
+      <c r="R13" s="2" t="inlineStr"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1199,8 +1199,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U13" s="2" t="n"/>
-      <c r="V13" s="2" t="n"/>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1218,13 +1218,13 @@
           <t xml:space="preserve">An e-cigarette organisation with headquarters based in San Francisco. </t>
         </is>
       </c>
-      <c r="D14" s="2" t="n"/>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1245,18 +1245,18 @@
           <t>tobacco funding</t>
         </is>
       </c>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
       <c r="P14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="2" t="n"/>
+      <c r="R14" s="2" t="inlineStr"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1267,8 +1267,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U14" s="2" t="n"/>
-      <c r="V14" s="2" t="n"/>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1286,13 +1286,13 @@
           <t xml:space="preserve">A medical and health care service that is publicly funded to provide care for people in the UK. </t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
+      <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">medical and health care service </t>
         </is>
       </c>
-      <c r="F15" s="2" t="n"/>
+      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1303,24 +1303,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
           <t>NHS</t>
         </is>
       </c>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="2" t="n"/>
+      <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1331,65 +1331,65 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U15" s="2" t="n"/>
-      <c r="V15" s="2" t="n"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n"/>
+      <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>National Institute for Health and Care Excellence</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
           <t>NICE</t>
         </is>
       </c>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n"/>
+      <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">National Institute of Health Research </t>
         </is>
       </c>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1400,23 +1400,23 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>NIHR</t>
         </is>
       </c>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="2" t="n"/>
+      <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1427,52 +1427,52 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="n"/>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
+      <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1500,8 +1500,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1512,23 +1512,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R19" s="2" t="n"/>
+      <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1539,40 +1539,40 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="n"/>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Puffit</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R20" s="2" t="n"/>
+      <c r="R20" s="2" t="inlineStr"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1583,21 +1583,21 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
+      <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1608,19 +1608,19 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R21" s="2" t="n"/>
+      <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1631,40 +1631,40 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="n"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n"/>
+      <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="n"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="2" t="n"/>
+      <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1675,8 +1675,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U22" s="2" t="n"/>
-      <c r="V22" s="2" t="n"/>
+      <c r="U22" s="2" t="inlineStr"/>
+      <c r="V22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1689,30 +1689,30 @@
           <t>Volcano</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R23" s="2" t="n"/>
+      <c r="R23" s="2" t="inlineStr"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1723,11 +1723,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="n"/>
+      <c r="U23" s="2" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol change UK </t>
@@ -1738,13 +1738,13 @@
           <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
         </is>
       </c>
-      <c r="D24" s="2" t="n"/>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
+      <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1755,20 +1755,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R24" s="2" t="n"/>
+      <c r="R24" s="2" t="inlineStr"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1779,11 +1779,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="n"/>
+      <c r="U24" s="2" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n"/>
+      <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
@@ -1794,13 +1794,13 @@
           <t xml:space="preserve">A charity which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
+      <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F25" s="2" t="n"/>
+      <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1816,23 +1816,23 @@
           <t xml:space="preserve">grant agency  </t>
         </is>
       </c>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol harm prevention organisation </t>
         </is>
       </c>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R25" s="2" t="n"/>
+      <c r="R25" s="2" t="inlineStr"/>
       <c r="S25" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1843,8 +1843,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="n"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1872,7 +1872,7 @@
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F26" s="3" t="n"/>
+      <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1888,19 +1888,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J26" s="3" t="n"/>
-      <c r="K26" s="3" t="n"/>
-      <c r="L26" s="3" t="n"/>
-      <c r="M26" s="3" t="n"/>
-      <c r="N26" s="3" t="n"/>
-      <c r="O26" s="3" t="n"/>
+      <c r="J26" s="3" t="inlineStr"/>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr"/>
       <c r="P26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R26" s="3" t="n"/>
+      <c r="R26" s="3" t="inlineStr"/>
       <c r="S26" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1911,11 +1911,11 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="3" t="n"/>
-      <c r="V26" s="3" t="n"/>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
+      <c r="A27" s="2" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
@@ -1926,9 +1926,9 @@
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1939,20 +1939,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
       <c r="P27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R27" s="2" t="n"/>
+      <c r="R27" s="2" t="inlineStr"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1963,11 +1963,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
@@ -1988,7 +1988,7 @@
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F28" s="2" t="n"/>
+      <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1999,24 +1999,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer prevention organisation </t>
         </is>
       </c>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R28" s="2" t="n"/>
+      <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
           <t>SC; to</t>
@@ -2027,8 +2027,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="n"/>
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2046,13 +2046,13 @@
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D29" s="2" t="n"/>
+      <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F29" s="2" t="n"/>
+      <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2068,19 +2068,19 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R29" s="2" t="n"/>
+      <c r="R29" s="2" t="inlineStr"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2091,8 +2091,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="n"/>
+      <c r="U29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2110,13 +2110,13 @@
           <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F30" s="2" t="n"/>
+      <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2132,19 +2132,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R30" s="2" t="n"/>
+      <c r="R30" s="2" t="inlineStr"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2155,8 +2155,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U30" s="2" t="n"/>
-      <c r="V30" s="2" t="n"/>
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2174,13 +2174,13 @@
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
-      <c r="F31" s="2" t="n"/>
+      <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2196,19 +2196,19 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R31" s="2" t="n"/>
+      <c r="R31" s="2" t="inlineStr"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2219,8 +2219,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="n"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2238,13 +2238,13 @@
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="F32" s="2" t="n"/>
+      <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2260,19 +2260,19 @@
           <t>supplier of product</t>
         </is>
       </c>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
-      <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="n"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R32" s="2" t="n"/>
+      <c r="R32" s="2" t="inlineStr"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2283,11 +2283,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="n"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
+      <c r="A33" s="2" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
@@ -2298,13 +2298,13 @@
           <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F33" s="2" t="n"/>
+      <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2315,20 +2315,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R33" s="2" t="n"/>
+      <c r="R33" s="2" t="inlineStr"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2339,8 +2339,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="n"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2358,13 +2358,13 @@
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="F34" s="2" t="n"/>
+      <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2380,23 +2380,23 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
           <t>shop; local shop; local store</t>
         </is>
       </c>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R34" s="2" t="n"/>
+      <c r="R34" s="2" t="inlineStr"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2407,8 +2407,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2426,13 +2426,13 @@
           <t>An organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>eorganisation</t>
         </is>
       </c>
-      <c r="F35" s="2" t="n"/>
+      <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2448,19 +2448,19 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R35" s="2" t="n"/>
+      <c r="R35" s="2" t="inlineStr"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2476,7 +2476,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V35" s="2" t="n"/>
+      <c r="V35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2494,13 +2494,13 @@
           <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
         </is>
       </c>
-      <c r="D36" s="3" t="n"/>
+      <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F36" s="3" t="n"/>
+      <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2516,7 +2516,7 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J36" s="3" t="n"/>
+      <c r="J36" s="3" t="inlineStr"/>
       <c r="K36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
@@ -2527,16 +2527,16 @@
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="M36" s="3" t="n"/>
-      <c r="N36" s="3" t="n"/>
-      <c r="O36" s="3" t="n"/>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R36" s="3" t="n"/>
+      <c r="R36" s="3" t="inlineStr"/>
       <c r="S36" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2547,8 +2547,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="3" t="n"/>
-      <c r="V36" s="3" t="n"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2566,13 +2566,13 @@
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components or e-liquid to consumers.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F37" s="2" t="n"/>
+      <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2588,23 +2588,23 @@
           <t xml:space="preserve">supplier of product; retailer of product </t>
         </is>
       </c>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
         </is>
       </c>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R37" s="2" t="n"/>
+      <c r="R37" s="2" t="inlineStr"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2620,7 +2620,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V37" s="2" t="n"/>
+      <c r="V37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2638,13 +2638,13 @@
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n"/>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F38" s="2" t="n"/>
+      <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2660,19 +2660,19 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="n"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R38" s="2" t="n"/>
+      <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2688,7 +2688,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V38" s="2" t="n"/>
+      <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2706,13 +2706,13 @@
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n"/>
+      <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>e-cigarette organisation</t>
         </is>
       </c>
-      <c r="F39" s="2" t="n"/>
+      <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2728,19 +2728,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R39" s="2" t="n"/>
+      <c r="R39" s="2" t="inlineStr"/>
       <c r="S39" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2756,7 +2756,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V39" s="2" t="n"/>
+      <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2774,13 +2774,13 @@
           <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n"/>
+      <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F40" s="2" t="n"/>
+      <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2791,20 +2791,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R40" s="2" t="n"/>
+      <c r="R40" s="2" t="inlineStr"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2815,8 +2815,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U40" s="2" t="n"/>
-      <c r="V40" s="2" t="n"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -2834,13 +2834,13 @@
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="n"/>
+      <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F41" s="3" t="n"/>
+      <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2851,24 +2851,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I41" s="3" t="n"/>
-      <c r="J41" s="3" t="n"/>
-      <c r="K41" s="3" t="n"/>
-      <c r="L41" s="3" t="n"/>
-      <c r="M41" s="3" t="n"/>
+      <c r="I41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr"/>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
       <c r="N41" s="3" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="O41" s="3" t="n"/>
+      <c r="O41" s="3" t="inlineStr"/>
       <c r="P41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="n"/>
+      <c r="R41" s="3" t="inlineStr"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
           <t>All</t>
@@ -2879,8 +2879,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="3" t="n"/>
-      <c r="V41" s="3" t="n"/>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2908,7 +2908,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F42" s="2" t="n"/>
+      <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2919,24 +2919,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
           <t>funder</t>
         </is>
       </c>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R42" s="2" t="n"/>
+      <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2947,8 +2947,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="n"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -2966,13 +2966,13 @@
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D43" s="3" t="n"/>
+      <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F43" s="3" t="n"/>
+      <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2988,27 +2988,27 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J43" s="3" t="n"/>
-      <c r="K43" s="3" t="n"/>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
       <c r="L43" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M43" s="3" t="n"/>
+      <c r="M43" s="3" t="inlineStr"/>
       <c r="N43" s="3" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O43" s="3" t="n"/>
+      <c r="O43" s="3" t="inlineStr"/>
       <c r="P43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="n"/>
+      <c r="R43" s="3" t="inlineStr"/>
       <c r="S43" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3024,7 +3024,7 @@
           <t>RW</t>
         </is>
       </c>
-      <c r="V43" s="3" t="n"/>
+      <c r="V43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -3042,13 +3042,13 @@
           <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
+      <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F44" s="2" t="n"/>
+      <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3064,23 +3064,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">vape industry; independent vape industry </t>
         </is>
       </c>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q44" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R44" s="2" t="n"/>
+      <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
           <t>JH; SC; CN</t>
@@ -3096,7 +3096,7 @@
           <t xml:space="preserve"> RW;  </t>
         </is>
       </c>
-      <c r="V44" s="2" t="n"/>
+      <c r="V44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3114,13 +3114,13 @@
           <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
+      <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F45" s="2" t="n"/>
+      <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3136,23 +3136,23 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
         </is>
       </c>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q45" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R45" s="2" t="n"/>
+      <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3168,47 +3168,47 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V45" s="2" t="n"/>
+      <c r="V45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="n"/>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
-      <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="n"/>
-      <c r="M46" s="2" t="n"/>
-      <c r="N46" s="2" t="n"/>
-      <c r="O46" s="2" t="n"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R46" s="2" t="n"/>
-      <c r="S46" s="2" t="n"/>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="n"/>
-      <c r="V46" s="2" t="n"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3226,13 +3226,13 @@
           <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n"/>
+      <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="F47" s="2" t="n"/>
+      <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3243,20 +3243,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
-      <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="n"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R47" s="2" t="n"/>
+      <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -3272,7 +3272,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V47" s="2" t="n"/>
+      <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3290,33 +3290,33 @@
           <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n"/>
+      <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R48" s="2" t="n"/>
+      <c r="R48" s="2" t="inlineStr"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3332,7 +3332,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V48" s="2" t="n"/>
+      <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3350,13 +3350,13 @@
           <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
-      <c r="D49" s="2" t="n"/>
+      <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F49" s="2" t="n"/>
+      <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3367,20 +3367,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q49" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R49" s="2" t="n"/>
+      <c r="R49" s="2" t="inlineStr"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3391,8 +3391,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="n"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3420,7 +3420,7 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="F50" s="3" t="n"/>
+      <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3431,8 +3431,8 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
+      <c r="I50" s="3" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr"/>
       <c r="K50" s="3" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
@@ -3443,24 +3443,24 @@
           <t>Organization</t>
         </is>
       </c>
-      <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="n"/>
-      <c r="O50" s="3" t="n"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
       <c r="P50" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R50" s="3" t="n"/>
-      <c r="S50" s="3" t="n"/>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr"/>
       <c r="T50" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="3" t="n"/>
-      <c r="V50" s="3" t="n"/>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3478,29 +3478,29 @@
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n"/>
+      <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
-      <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="n"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R51" s="2" t="n"/>
+      <c r="R51" s="2" t="inlineStr"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3511,11 +3511,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="n"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">regulatory agency </t>
@@ -3536,7 +3536,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F52" s="2" t="n"/>
+      <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3547,20 +3547,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I52" s="2" t="n"/>
-      <c r="J52" s="2" t="n"/>
-      <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
-      <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
-      <c r="O52" s="2" t="n"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q52" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R52" s="2" t="n"/>
+      <c r="R52" s="2" t="inlineStr"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3571,8 +3571,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U52" s="2" t="n"/>
-      <c r="V52" s="2" t="n"/>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3590,33 +3590,33 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n"/>
+      <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="n"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="n"/>
-      <c r="M53" s="2" t="n"/>
-      <c r="N53" s="2" t="n"/>
-      <c r="O53" s="2" t="n"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q53" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R53" s="2" t="n"/>
+      <c r="R53" s="2" t="inlineStr"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3632,47 +3632,47 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V53" s="2" t="n"/>
+      <c r="V53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
           <t>statutory child protection agency</t>
         </is>
       </c>
-      <c r="C54" s="2" t="n"/>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I54" s="2" t="n"/>
-      <c r="J54" s="2" t="n"/>
-      <c r="K54" s="2" t="n"/>
-      <c r="L54" s="2" t="n"/>
-      <c r="M54" s="2" t="n"/>
-      <c r="N54" s="2" t="n"/>
-      <c r="O54" s="2" t="n"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R54" s="2" t="n"/>
-      <c r="S54" s="2" t="n"/>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="n"/>
-      <c r="V54" s="2" t="n"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3690,33 +3690,33 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n"/>
+      <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F55" s="2" t="n"/>
-      <c r="G55" s="2" t="n"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
-      <c r="L55" s="2" t="n"/>
-      <c r="M55" s="2" t="n"/>
-      <c r="N55" s="2" t="n"/>
-      <c r="O55" s="2" t="n"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q55" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R55" s="2" t="n"/>
+      <c r="R55" s="2" t="inlineStr"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3732,7 +3732,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V55" s="2" t="n"/>
+      <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3750,13 +3750,13 @@
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
-      <c r="D56" s="2" t="n"/>
+      <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F56" s="2" t="n"/>
+      <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3772,27 +3772,27 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J56" s="2" t="n"/>
+      <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
       <c r="N56" s="2" t="inlineStr">
         <is>
           <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
         </is>
       </c>
-      <c r="O56" s="2" t="n"/>
+      <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q56" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R56" s="2" t="n"/>
+      <c r="R56" s="2" t="inlineStr"/>
       <c r="S56" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3808,10 +3808,10 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V56" s="2" t="n"/>
+      <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
           <t>tobacco funding</t>
@@ -3822,13 +3822,13 @@
           <t xml:space="preserve">A role that is provided by a tobacco company. </t>
         </is>
       </c>
-      <c r="D57" s="2" t="n"/>
+      <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">role </t>
         </is>
       </c>
-      <c r="F57" s="2" t="n"/>
+      <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">role </t>
@@ -3839,20 +3839,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="n"/>
-      <c r="O57" s="2" t="n"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q57" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R57" s="2" t="n"/>
+      <c r="R57" s="2" t="inlineStr"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3868,7 +3868,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V57" s="2" t="n"/>
+      <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3886,13 +3886,13 @@
           <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
-      <c r="D58" s="2" t="n"/>
+      <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F58" s="2" t="n"/>
+      <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3903,20 +3903,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
-      <c r="M58" s="2" t="n"/>
-      <c r="N58" s="2" t="n"/>
-      <c r="O58" s="2" t="n"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q58" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R58" s="2" t="n"/>
+      <c r="R58" s="2" t="inlineStr"/>
       <c r="S58" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3932,7 +3932,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V58" s="2" t="n"/>
+      <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3950,13 +3950,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n"/>
+      <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F59" s="2" t="n"/>
+      <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3972,19 +3972,19 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
-      <c r="L59" s="2" t="n"/>
-      <c r="M59" s="2" t="n"/>
-      <c r="N59" s="2" t="n"/>
-      <c r="O59" s="2" t="n"/>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q59" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R59" s="2" t="n"/>
+      <c r="R59" s="2" t="inlineStr"/>
       <c r="S59" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4000,7 +4000,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V59" s="2" t="n"/>
+      <c r="V59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -4018,13 +4018,13 @@
           <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
-      <c r="D60" s="2" t="n"/>
+      <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F60" s="2" t="n"/>
+      <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -4040,19 +4040,19 @@
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
-      <c r="M60" s="2" t="n"/>
-      <c r="N60" s="2" t="n"/>
-      <c r="O60" s="2" t="n"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q60" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R60" s="2" t="n"/>
+      <c r="R60" s="2" t="inlineStr"/>
       <c r="S60" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4068,7 +4068,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V60" s="2" t="n"/>
+      <c r="V60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -4086,13 +4086,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n"/>
+      <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F61" s="2" t="n"/>
+      <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -4108,19 +4108,19 @@
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="n"/>
-      <c r="N61" s="2" t="n"/>
-      <c r="O61" s="2" t="n"/>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q61" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R61" s="2" t="n"/>
+      <c r="R61" s="2" t="inlineStr"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4136,7 +4136,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V61" s="2" t="n"/>
+      <c r="V61" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -560,7 +560,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test'</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -560,7 +560,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test'</t>
+          <t>test"</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -560,7 +560,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test"</t>
+          <t>test"' !~@#$%^*(_ {[|\:;&lt;/?/</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -560,7 +560,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test"' !~@#$%^*(_ {[|\:;&lt;/?/</t>
+          <t>test"' !~@#$%^*(_ {[|\:;&lt;/?/and</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -560,7 +560,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test"' !~@#$%^*(_ {[|\:;&lt;/?/and</t>
+          <t>test and</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -560,7 +560,8 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test and</t>
+          <t xml:space="preserve">test %and
+</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -560,8 +560,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">test %and
-</t>
+          <t>test and and</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -551,7 +551,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
+      <c r="A2" s="2" t="n"/>
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
@@ -560,32 +560,31 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">test %and
-</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+          <t>testand</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -596,8 +595,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -615,13 +614,13 @@
           <t>A philanthropy organisation that is based in New York.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -637,19 +636,19 @@
           <t>grant agency</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -660,8 +659,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -689,8 +688,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -701,23 +700,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -728,88 +727,88 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr"/>
+      <c r="A5" s="2" t="n"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr"/>
+      <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -827,13 +826,13 @@
           <t>A charity that is focused on cancer research within the UK with a company number 4355631.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -849,23 +848,23 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">CRUK </t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -876,48 +875,48 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr"/>
+      <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -935,7 +934,7 @@
           <t>The US government agency that has responsibility for health protection.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -961,23 +960,23 @@
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
       <c r="P9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="inlineStr"/>
+      <c r="R9" s="3" t="n"/>
       <c r="S9" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -988,88 +987,88 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="3" t="inlineStr"/>
-      <c r="V9" s="3" t="inlineStr"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr"/>
+      <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr"/>
+      <c r="A11" s="2" t="n"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1087,7 +1086,7 @@
           <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="n"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -1113,19 +1112,19 @@
           <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
       <c r="P12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="inlineStr"/>
+      <c r="R12" s="3" t="n"/>
       <c r="S12" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -1136,8 +1135,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U12" s="3" t="inlineStr"/>
-      <c r="V12" s="3" t="inlineStr"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1155,13 +1154,13 @@
           <t>A charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1177,19 +1176,19 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1200,8 +1199,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1219,13 +1218,13 @@
           <t xml:space="preserve">An e-cigarette organisation with headquarters based in San Francisco. </t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1246,18 +1245,18 @@
           <t>tobacco funding</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1268,8 +1267,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1287,13 +1286,13 @@
           <t xml:space="preserve">A medical and health care service that is publicly funded to provide care for people in the UK. </t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">medical and health care service </t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1304,24 +1303,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
           <t>NHS</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1332,65 +1331,65 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
+      <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>National Institute for Health and Care Excellence</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
           <t>NICE</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr"/>
+      <c r="A17" s="2" t="n"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">National Institute of Health Research </t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1401,23 +1400,23 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>NIHR</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1428,52 +1427,52 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr"/>
+      <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
       <c r="H18" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1501,8 +1500,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
       <c r="H19" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1513,23 +1512,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1540,40 +1539,40 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr"/>
+      <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Puffit</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
       <c r="H20" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="n"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1584,21 +1583,21 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr"/>
+      <c r="A21" s="2" t="n"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
       <c r="H21" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1609,19 +1608,19 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="n"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1632,40 +1631,40 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr"/>
+      <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="2" t="inlineStr"/>
+      <c r="R22" s="2" t="n"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1676,8 +1675,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1690,30 +1689,30 @@
           <t>Volcano</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
       <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R23" s="2" t="inlineStr"/>
+      <c r="R23" s="2" t="n"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1724,11 +1723,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr"/>
+      <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol change UK </t>
@@ -1739,13 +1738,13 @@
           <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1756,20 +1755,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="n"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1780,11 +1779,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="n"/>
+      <c r="V24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr"/>
+      <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
@@ -1795,13 +1794,13 @@
           <t xml:space="preserve">A charity which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1817,23 +1816,23 @@
           <t xml:space="preserve">grant agency  </t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol harm prevention organisation </t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="n"/>
       <c r="S25" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1844,8 +1843,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1873,7 +1872,7 @@
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1889,19 +1888,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr"/>
-      <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
+      <c r="L26" s="3" t="n"/>
+      <c r="M26" s="3" t="n"/>
+      <c r="N26" s="3" t="n"/>
+      <c r="O26" s="3" t="n"/>
       <c r="P26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="n"/>
       <c r="S26" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1912,11 +1911,11 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="3" t="inlineStr"/>
-      <c r="V26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="n"/>
+      <c r="V26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr"/>
+      <c r="A27" s="2" t="n"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
@@ -1927,9 +1926,9 @@
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1940,20 +1939,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
       <c r="P27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1964,11 +1963,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="n"/>
+      <c r="V27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr"/>
+      <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
@@ -1989,7 +1988,7 @@
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2000,24 +1999,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer prevention organisation </t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="n"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
           <t>SC; to</t>
@@ -2028,8 +2027,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2047,13 +2046,13 @@
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2069,19 +2068,19 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
       <c r="P29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R29" s="2" t="inlineStr"/>
+      <c r="R29" s="2" t="n"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2092,8 +2091,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2111,13 +2110,13 @@
           <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2133,19 +2132,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R30" s="2" t="inlineStr"/>
+      <c r="R30" s="2" t="n"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2156,8 +2155,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2175,13 +2174,13 @@
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2197,19 +2196,19 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
       <c r="P31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="n"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2220,8 +2219,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2239,13 +2238,13 @@
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="n"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2261,19 +2260,19 @@
           <t>supplier of product</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="n"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2284,11 +2283,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr"/>
+      <c r="A33" s="2" t="n"/>
       <c r="B33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
@@ -2299,13 +2298,13 @@
           <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="n"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2316,20 +2315,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="n"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2340,8 +2339,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2359,13 +2358,13 @@
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="n"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2381,23 +2380,23 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
           <t>shop; local shop; local store</t>
         </is>
       </c>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="n"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2408,8 +2407,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2427,13 +2426,13 @@
           <t>An organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>eorganisation</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="n"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2449,19 +2448,19 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="n"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2477,7 +2476,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2495,13 +2494,13 @@
           <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="n"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2517,7 +2516,7 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr"/>
+      <c r="J36" s="3" t="n"/>
       <c r="K36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
@@ -2528,16 +2527,16 @@
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr"/>
+      <c r="M36" s="3" t="n"/>
+      <c r="N36" s="3" t="n"/>
+      <c r="O36" s="3" t="n"/>
       <c r="P36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="n"/>
       <c r="S36" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2548,8 +2547,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="3" t="inlineStr"/>
-      <c r="V36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="n"/>
+      <c r="V36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2567,13 +2566,13 @@
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components or e-liquid to consumers.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="n"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2589,23 +2588,23 @@
           <t xml:space="preserve">supplier of product; retailer of product </t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
         </is>
       </c>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="n"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2621,7 +2620,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2639,13 +2638,13 @@
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2661,19 +2660,19 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
       <c r="P38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R38" s="2" t="inlineStr"/>
+      <c r="R38" s="2" t="n"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2689,7 +2688,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2707,13 +2706,13 @@
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>e-cigarette organisation</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="n"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2729,19 +2728,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
       <c r="P39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="n"/>
       <c r="S39" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2757,7 +2756,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2775,13 +2774,13 @@
           <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="n"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="n"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2792,20 +2791,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="n"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2816,8 +2815,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="n"/>
+      <c r="V40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -2835,13 +2834,13 @@
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="n"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2852,24 +2851,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr"/>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="n"/>
       <c r="N41" s="3" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="O41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="n"/>
       <c r="P41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
           <t>All</t>
@@ -2880,8 +2879,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="3" t="inlineStr"/>
-      <c r="V41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="n"/>
+      <c r="V41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2909,7 +2908,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="n"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2920,24 +2919,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
           <t>funder</t>
         </is>
       </c>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
       <c r="P42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="n"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2948,8 +2947,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -2967,13 +2966,13 @@
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="n"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2989,27 +2988,27 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
       <c r="L43" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="n"/>
       <c r="N43" s="3" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="n"/>
       <c r="P43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="n"/>
       <c r="S43" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3025,7 +3024,7 @@
           <t>RW</t>
         </is>
       </c>
-      <c r="V43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -3043,13 +3042,13 @@
           <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="n"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3065,23 +3064,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">vape industry; independent vape industry </t>
         </is>
       </c>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q44" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="n"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
           <t>JH; SC; CN</t>
@@ -3097,7 +3096,7 @@
           <t xml:space="preserve"> RW;  </t>
         </is>
       </c>
-      <c r="V44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3115,13 +3114,13 @@
           <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3137,23 +3136,23 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
         </is>
       </c>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
       <c r="P45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q45" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="n"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3169,47 +3168,47 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr"/>
+      <c r="A46" s="2" t="n"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
       <c r="H46" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="n"/>
+      <c r="S46" s="2" t="n"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3227,13 +3226,13 @@
           <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3244,20 +3243,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="n"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -3273,7 +3272,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3291,33 +3290,33 @@
           <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
       <c r="E48" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="n"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3333,7 +3332,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3351,13 +3350,13 @@
           <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3368,20 +3367,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
       <c r="P49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q49" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="n"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3392,8 +3391,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3421,7 +3420,7 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="n"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3432,8 +3431,8 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr"/>
-      <c r="J50" s="3" t="inlineStr"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
       <c r="K50" s="3" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
@@ -3444,24 +3443,24 @@
           <t>Organization</t>
         </is>
       </c>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
+      <c r="O50" s="3" t="n"/>
       <c r="P50" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr"/>
+      <c r="R50" s="3" t="n"/>
+      <c r="S50" s="3" t="n"/>
       <c r="T50" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="3" t="inlineStr"/>
-      <c r="V50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="n"/>
+      <c r="V50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3479,29 +3478,29 @@
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="n"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3512,11 +3511,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr"/>
+      <c r="A52" s="2" t="n"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">regulatory agency </t>
@@ -3537,7 +3536,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="n"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3548,20 +3547,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
       <c r="P52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q52" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R52" s="2" t="inlineStr"/>
+      <c r="R52" s="2" t="n"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3572,8 +3571,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3591,33 +3590,33 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
       <c r="H53" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
       <c r="P53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q53" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R53" s="2" t="inlineStr"/>
+      <c r="R53" s="2" t="n"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3633,47 +3632,47 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr"/>
+      <c r="A54" s="2" t="n"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
           <t>statutory child protection agency</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr"/>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
       <c r="H54" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="n"/>
+      <c r="S54" s="2" t="n"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="n"/>
+      <c r="V54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3691,33 +3690,33 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
       <c r="H55" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
       <c r="P55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q55" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R55" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="n"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3733,7 +3732,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3751,13 +3750,13 @@
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="n"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="n"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3773,27 +3772,27 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="n"/>
       <c r="K56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
       <c r="N56" s="2" t="inlineStr">
         <is>
           <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
         </is>
       </c>
-      <c r="O56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="n"/>
       <c r="P56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q56" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R56" s="2" t="inlineStr"/>
+      <c r="R56" s="2" t="n"/>
       <c r="S56" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3809,10 +3808,10 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr"/>
+      <c r="A57" s="2" t="n"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
           <t>tobacco funding</t>
@@ -3823,13 +3822,13 @@
           <t xml:space="preserve">A role that is provided by a tobacco company. </t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="n"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">role </t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="n"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">role </t>
@@ -3840,20 +3839,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+      <c r="O57" s="2" t="n"/>
       <c r="P57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q57" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R57" s="2" t="inlineStr"/>
+      <c r="R57" s="2" t="n"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3869,7 +3868,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3887,13 +3886,13 @@
           <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="n"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3904,20 +3903,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
       <c r="P58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q58" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="n"/>
       <c r="S58" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3933,7 +3932,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3951,13 +3950,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n"/>
       <c r="E59" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="n"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3973,19 +3972,19 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
       <c r="P59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q59" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R59" s="2" t="inlineStr"/>
+      <c r="R59" s="2" t="n"/>
       <c r="S59" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4001,7 +4000,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -4019,13 +4018,13 @@
           <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="n"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -4041,19 +4040,19 @@
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
       <c r="P60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q60" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="n"/>
       <c r="S60" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4069,7 +4068,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -4087,13 +4086,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="n"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -4109,19 +4108,19 @@
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
       <c r="P61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q61" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="n"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4137,7 +4136,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -70,74 +70,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -551,7 +483,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
+      <c r="A2" s="2" t="inlineStr"/>
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
@@ -563,28 +495,30 @@
           <t>testand</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="n"/>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -595,8 +529,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -614,13 +548,13 @@
           <t>A philanthropy organisation that is based in New York.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n"/>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -636,19 +570,21 @@
           <t>grant agency</t>
         </is>
       </c>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="n"/>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -659,8 +595,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -688,8 +624,12 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -700,26 +640,28 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="n"/>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
@@ -727,88 +669,92 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
+      <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
+      <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -826,13 +772,13 @@
           <t>A charity that is focused on cancer research within the UK with a company number 4355631.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -848,23 +794,25 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">CRUK </t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n"/>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -875,48 +823,50 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
+      <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr"/>
+      <c r="S8" s="2" t="inlineStr"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -934,7 +884,7 @@
           <t>The US government agency that has responsibility for health protection.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -960,23 +910,25 @@
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr"/>
       <c r="P9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="n"/>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr"/>
       <c r="S9" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -987,88 +939,94 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="3" t="n"/>
-      <c r="V9" s="3" t="n"/>
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
+      <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U10" s="2" t="n"/>
-      <c r="V10" s="2" t="n"/>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
+      <c r="A11" s="2" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1086,7 +1044,7 @@
           <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -1112,19 +1070,21 @@
           <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
-      <c r="L12" s="3" t="n"/>
-      <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
-      <c r="O12" s="3" t="n"/>
+      <c r="J12" s="3" t="inlineStr"/>
+      <c r="K12" s="3" t="inlineStr"/>
+      <c r="L12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr"/>
+      <c r="O12" s="3" t="inlineStr"/>
       <c r="P12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="n"/>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr"/>
       <c r="S12" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -1135,8 +1095,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U12" s="3" t="n"/>
-      <c r="V12" s="3" t="n"/>
+      <c r="U12" s="3" t="inlineStr"/>
+      <c r="V12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1154,13 +1114,13 @@
           <t>A charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1176,19 +1136,21 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="n"/>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1199,8 +1161,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U13" s="2" t="n"/>
-      <c r="V13" s="2" t="n"/>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1218,13 +1180,13 @@
           <t xml:space="preserve">An e-cigarette organisation with headquarters based in San Francisco. </t>
         </is>
       </c>
-      <c r="D14" s="2" t="n"/>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1245,18 +1207,20 @@
           <t>tobacco funding</t>
         </is>
       </c>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
       <c r="P14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="n"/>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1267,8 +1231,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U14" s="2" t="n"/>
-      <c r="V14" s="2" t="n"/>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1286,13 +1250,13 @@
           <t xml:space="preserve">A medical and health care service that is publicly funded to provide care for people in the UK. </t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
+      <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">medical and health care service </t>
         </is>
       </c>
-      <c r="F15" s="2" t="n"/>
+      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1303,24 +1267,26 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
           <t>NHS</t>
         </is>
       </c>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="n"/>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1331,65 +1297,67 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U15" s="2" t="n"/>
-      <c r="V15" s="2" t="n"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n"/>
+      <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>National Institute for Health and Care Excellence</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
           <t>NICE</t>
         </is>
       </c>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n"/>
+      <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">National Institute of Health Research </t>
         </is>
       </c>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1400,23 +1368,25 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>NIHR</t>
         </is>
       </c>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="n"/>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1427,52 +1397,56 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="n"/>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
+      <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1500,8 +1474,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1512,23 +1486,25 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="n"/>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1539,40 +1515,44 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="n"/>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Puffit</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="n"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1583,21 +1563,21 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
+      <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1608,19 +1588,21 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="n"/>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1631,40 +1613,44 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="n"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n"/>
+      <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="n"/>
-      <c r="P22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="n"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1675,8 +1661,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U22" s="2" t="n"/>
-      <c r="V22" s="2" t="n"/>
+      <c r="U22" s="2" t="inlineStr"/>
+      <c r="V22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1689,30 +1675,34 @@
           <t>Volcano</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
-      <c r="P23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="n"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1723,11 +1713,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="n"/>
+      <c r="U23" s="2" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol change UK </t>
@@ -1738,13 +1728,13 @@
           <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
         </is>
       </c>
-      <c r="D24" s="2" t="n"/>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
+      <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1755,20 +1745,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="n"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1779,11 +1773,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="n"/>
+      <c r="U24" s="2" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n"/>
+      <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
@@ -1794,13 +1788,13 @@
           <t xml:space="preserve">A charity which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
+      <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F25" s="2" t="n"/>
+      <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1816,23 +1810,27 @@
           <t xml:space="preserve">grant agency  </t>
         </is>
       </c>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol harm prevention organisation </t>
         </is>
       </c>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
-      <c r="P25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="n"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr"/>
       <c r="S25" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1843,8 +1841,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="n"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1872,7 +1870,7 @@
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F26" s="3" t="n"/>
+      <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1888,19 +1886,23 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J26" s="3" t="n"/>
-      <c r="K26" s="3" t="n"/>
-      <c r="L26" s="3" t="n"/>
-      <c r="M26" s="3" t="n"/>
-      <c r="N26" s="3" t="n"/>
-      <c r="O26" s="3" t="n"/>
-      <c r="P26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="n"/>
+      <c r="J26" s="3" t="inlineStr"/>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr"/>
+      <c r="P26" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R26" s="3" t="inlineStr"/>
       <c r="S26" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1911,11 +1913,11 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="3" t="n"/>
-      <c r="V26" s="3" t="n"/>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
+      <c r="A27" s="2" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
@@ -1926,9 +1928,9 @@
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1939,20 +1941,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
-      <c r="P27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2" t="n"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1963,11 +1969,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
@@ -1988,7 +1994,7 @@
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F28" s="2" t="n"/>
+      <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1999,24 +2005,26 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer prevention organisation </t>
         </is>
       </c>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="n"/>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
           <t>SC; to</t>
@@ -2027,8 +2035,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="n"/>
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2046,13 +2054,13 @@
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D29" s="2" t="n"/>
+      <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F29" s="2" t="n"/>
+      <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2068,19 +2076,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="n"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2091,8 +2103,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="n"/>
+      <c r="U29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2110,13 +2122,13 @@
           <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F30" s="2" t="n"/>
+      <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2132,19 +2144,23 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
-      <c r="P30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="n"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2155,8 +2171,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U30" s="2" t="n"/>
-      <c r="V30" s="2" t="n"/>
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2174,13 +2190,13 @@
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
-      <c r="F31" s="2" t="n"/>
+      <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2196,19 +2212,23 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="n"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2219,8 +2239,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="n"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2238,13 +2258,13 @@
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="F32" s="2" t="n"/>
+      <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2260,19 +2280,23 @@
           <t>supplier of product</t>
         </is>
       </c>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
-      <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="n"/>
-      <c r="P32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2" t="n"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2283,11 +2307,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="n"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
+      <c r="A33" s="2" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
@@ -2298,13 +2322,13 @@
           <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F33" s="2" t="n"/>
+      <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2315,20 +2339,22 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2" t="n"/>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2339,8 +2365,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="n"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2358,13 +2384,13 @@
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="F34" s="2" t="n"/>
+      <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2380,23 +2406,25 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
           <t>shop; local shop; local store</t>
         </is>
       </c>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2" t="n"/>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2407,8 +2435,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2426,13 +2454,13 @@
           <t>An organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>eorganisation</t>
         </is>
       </c>
-      <c r="F35" s="2" t="n"/>
+      <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2448,19 +2476,21 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2" t="n"/>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2476,7 +2506,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V35" s="2" t="n"/>
+      <c r="V35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2494,13 +2524,13 @@
           <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
         </is>
       </c>
-      <c r="D36" s="3" t="n"/>
+      <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F36" s="3" t="n"/>
+      <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2516,7 +2546,7 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J36" s="3" t="n"/>
+      <c r="J36" s="3" t="inlineStr"/>
       <c r="K36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
@@ -2527,16 +2557,18 @@
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="M36" s="3" t="n"/>
-      <c r="N36" s="3" t="n"/>
-      <c r="O36" s="3" t="n"/>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3" t="n"/>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr"/>
       <c r="S36" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2547,8 +2579,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="3" t="n"/>
-      <c r="V36" s="3" t="n"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2566,13 +2598,13 @@
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components or e-liquid to consumers.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F37" s="2" t="n"/>
+      <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2588,23 +2620,25 @@
           <t xml:space="preserve">supplier of product; retailer of product </t>
         </is>
       </c>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
         </is>
       </c>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2" t="n"/>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2620,7 +2654,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V37" s="2" t="n"/>
+      <c r="V37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2638,13 +2672,13 @@
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n"/>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F38" s="2" t="n"/>
+      <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2660,19 +2694,21 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="n"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2" t="n"/>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2688,7 +2724,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V38" s="2" t="n"/>
+      <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2706,13 +2742,13 @@
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n"/>
+      <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>e-cigarette organisation</t>
         </is>
       </c>
-      <c r="F39" s="2" t="n"/>
+      <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2728,19 +2764,21 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2" t="n"/>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
       <c r="S39" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -2756,7 +2794,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V39" s="2" t="n"/>
+      <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2774,13 +2812,13 @@
           <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n"/>
+      <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F40" s="2" t="n"/>
+      <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2791,20 +2829,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
-      <c r="P40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2" t="n"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2815,8 +2857,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U40" s="2" t="n"/>
-      <c r="V40" s="2" t="n"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -2834,13 +2876,13 @@
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="n"/>
+      <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F41" s="3" t="n"/>
+      <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2851,24 +2893,26 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I41" s="3" t="n"/>
-      <c r="J41" s="3" t="n"/>
-      <c r="K41" s="3" t="n"/>
-      <c r="L41" s="3" t="n"/>
-      <c r="M41" s="3" t="n"/>
+      <c r="I41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr"/>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
       <c r="N41" s="3" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="O41" s="3" t="n"/>
+      <c r="O41" s="3" t="inlineStr"/>
       <c r="P41" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="n"/>
+      <c r="Q41" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R41" s="3" t="inlineStr"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
           <t>All</t>
@@ -2879,8 +2923,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="3" t="n"/>
-      <c r="V41" s="3" t="n"/>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2908,7 +2952,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F42" s="2" t="n"/>
+      <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2919,24 +2963,26 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
           <t>funder</t>
         </is>
       </c>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2" t="n"/>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2947,8 +2993,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="n"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -2966,13 +3012,13 @@
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D43" s="3" t="n"/>
+      <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F43" s="3" t="n"/>
+      <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2988,27 +3034,29 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J43" s="3" t="n"/>
-      <c r="K43" s="3" t="n"/>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
       <c r="L43" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M43" s="3" t="n"/>
+      <c r="M43" s="3" t="inlineStr"/>
       <c r="N43" s="3" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O43" s="3" t="n"/>
+      <c r="O43" s="3" t="inlineStr"/>
       <c r="P43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="n"/>
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R43" s="3" t="inlineStr"/>
       <c r="S43" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3024,7 +3072,7 @@
           <t>RW</t>
         </is>
       </c>
-      <c r="V43" s="3" t="n"/>
+      <c r="V43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -3042,13 +3090,13 @@
           <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
+      <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F44" s="2" t="n"/>
+      <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3064,23 +3112,25 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">vape industry; independent vape industry </t>
         </is>
       </c>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2" t="n"/>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
           <t>JH; SC; CN</t>
@@ -3096,7 +3146,7 @@
           <t xml:space="preserve"> RW;  </t>
         </is>
       </c>
-      <c r="V44" s="2" t="n"/>
+      <c r="V44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3114,13 +3164,13 @@
           <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
+      <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F45" s="2" t="n"/>
+      <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3136,23 +3186,25 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
         </is>
       </c>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2" t="n"/>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3168,47 +3220,51 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V45" s="2" t="n"/>
+      <c r="V45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="n"/>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
-      <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="n"/>
-      <c r="M46" s="2" t="n"/>
-      <c r="N46" s="2" t="n"/>
-      <c r="O46" s="2" t="n"/>
-      <c r="P46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="2" t="n"/>
-      <c r="S46" s="2" t="n"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="n"/>
-      <c r="V46" s="2" t="n"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3226,13 +3282,13 @@
           <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n"/>
+      <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="F47" s="2" t="n"/>
+      <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3243,20 +3299,22 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
-      <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="n"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2" t="n"/>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -3272,7 +3330,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V47" s="2" t="n"/>
+      <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3290,33 +3348,35 @@
           <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n"/>
+      <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2" t="n"/>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3332,7 +3392,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V48" s="2" t="n"/>
+      <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3350,13 +3410,13 @@
           <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
-      <c r="D49" s="2" t="n"/>
+      <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F49" s="2" t="n"/>
+      <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3367,20 +3427,22 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2" t="n"/>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3391,8 +3453,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="n"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3420,7 +3482,7 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="F50" s="3" t="n"/>
+      <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3431,8 +3493,8 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
+      <c r="I50" s="3" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr"/>
       <c r="K50" s="3" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
@@ -3443,24 +3505,26 @@
           <t>Organization</t>
         </is>
       </c>
-      <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="n"/>
-      <c r="O50" s="3" t="n"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
       <c r="P50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="3" t="n"/>
-      <c r="S50" s="3" t="n"/>
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr"/>
       <c r="T50" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="3" t="n"/>
-      <c r="V50" s="3" t="n"/>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3478,29 +3542,33 @@
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n"/>
+      <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
-      <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="n"/>
-      <c r="P51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="n"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3511,11 +3579,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="n"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">regulatory agency </t>
@@ -3536,7 +3604,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F52" s="2" t="n"/>
+      <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3547,20 +3615,22 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I52" s="2" t="n"/>
-      <c r="J52" s="2" t="n"/>
-      <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
-      <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
-      <c r="O52" s="2" t="n"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2" t="n"/>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3571,8 +3641,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U52" s="2" t="n"/>
-      <c r="V52" s="2" t="n"/>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3590,33 +3660,35 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n"/>
+      <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="n"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="n"/>
-      <c r="M53" s="2" t="n"/>
-      <c r="N53" s="2" t="n"/>
-      <c r="O53" s="2" t="n"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2" t="n"/>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3632,47 +3704,51 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V53" s="2" t="n"/>
+      <c r="V53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
           <t>statutory child protection agency</t>
         </is>
       </c>
-      <c r="C54" s="2" t="n"/>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I54" s="2" t="n"/>
-      <c r="J54" s="2" t="n"/>
-      <c r="K54" s="2" t="n"/>
-      <c r="L54" s="2" t="n"/>
-      <c r="M54" s="2" t="n"/>
-      <c r="N54" s="2" t="n"/>
-      <c r="O54" s="2" t="n"/>
-      <c r="P54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2" t="n"/>
-      <c r="S54" s="2" t="n"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="n"/>
-      <c r="V54" s="2" t="n"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3690,33 +3766,35 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n"/>
+      <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F55" s="2" t="n"/>
-      <c r="G55" s="2" t="n"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
-      <c r="L55" s="2" t="n"/>
-      <c r="M55" s="2" t="n"/>
-      <c r="N55" s="2" t="n"/>
-      <c r="O55" s="2" t="n"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="n"/>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3732,7 +3810,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V55" s="2" t="n"/>
+      <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3750,13 +3828,13 @@
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
-      <c r="D56" s="2" t="n"/>
+      <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F56" s="2" t="n"/>
+      <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3772,27 +3850,29 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J56" s="2" t="n"/>
+      <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
       <c r="N56" s="2" t="inlineStr">
         <is>
           <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
         </is>
       </c>
-      <c r="O56" s="2" t="n"/>
+      <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2" t="n"/>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R56" s="2" t="inlineStr"/>
       <c r="S56" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3808,10 +3888,10 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V56" s="2" t="n"/>
+      <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
           <t>tobacco funding</t>
@@ -3822,13 +3902,13 @@
           <t xml:space="preserve">A role that is provided by a tobacco company. </t>
         </is>
       </c>
-      <c r="D57" s="2" t="n"/>
+      <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">role </t>
         </is>
       </c>
-      <c r="F57" s="2" t="n"/>
+      <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">role </t>
@@ -3839,20 +3919,22 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="n"/>
-      <c r="O57" s="2" t="n"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2" t="n"/>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="inlineStr"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3868,7 +3950,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V57" s="2" t="n"/>
+      <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3886,13 +3968,13 @@
           <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
-      <c r="D58" s="2" t="n"/>
+      <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F58" s="2" t="n"/>
+      <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3903,20 +3985,22 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
-      <c r="M58" s="2" t="n"/>
-      <c r="N58" s="2" t="n"/>
-      <c r="O58" s="2" t="n"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2" t="n"/>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="inlineStr"/>
       <c r="S58" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3932,7 +4016,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V58" s="2" t="n"/>
+      <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3950,13 +4034,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n"/>
+      <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F59" s="2" t="n"/>
+      <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3972,19 +4056,21 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
-      <c r="L59" s="2" t="n"/>
-      <c r="M59" s="2" t="n"/>
-      <c r="N59" s="2" t="n"/>
-      <c r="O59" s="2" t="n"/>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2" t="n"/>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R59" s="2" t="inlineStr"/>
       <c r="S59" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4000,7 +4086,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V59" s="2" t="n"/>
+      <c r="V59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -4018,13 +4104,13 @@
           <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
-      <c r="D60" s="2" t="n"/>
+      <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F60" s="2" t="n"/>
+      <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -4040,19 +4126,21 @@
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
-      <c r="M60" s="2" t="n"/>
-      <c r="N60" s="2" t="n"/>
-      <c r="O60" s="2" t="n"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2" t="n"/>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="inlineStr"/>
       <c r="S60" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4068,7 +4156,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V60" s="2" t="n"/>
+      <c r="V60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -4086,13 +4174,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n"/>
+      <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F61" s="2" t="n"/>
+      <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -4108,19 +4196,21 @@
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="n"/>
-      <c r="N61" s="2" t="n"/>
-      <c r="O61" s="2" t="n"/>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2" t="n"/>
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="inlineStr"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -4136,7 +4226,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V61" s="2" t="n"/>
+      <c r="V61" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
